--- a/results/crawl_results.xlsx
+++ b/results/crawl_results.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,6 +1677,181 @@
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>430877408a22</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="30" customHeight="1">
+      <c r="A36" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-23 19:11:18</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>https://designnlife.com/article/상품-qa/6/168137/page/1/</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>원단디비 💥광고문의 텔레:GGBOT114💥 대출DB 상품</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>🔥📢 구글 웹문서 도배 광고 소개 📢🔥 ✅ 빠른 작업 · ✅ 빠른 노출 · ✅ 빠른 효과 구글 웹문서를 활용한 찌라시 도배 광고는 검색에 최적화된 웹문서를 대량으로 제작·배포하여 초 단기간 상위노출 홍보를 실현합니다! 🚀 💎 이런 분들께 추천합니다! ✔️ 신규 서비스 · 사이트 홍보 ✔️ 단기간 빠른 효과 마케팅 📲 지금 바로 상담 문의 주시면, ⚡️ 당일 작업 ⚡️ 가능합니다! ✅ 구글찌라시 &amp; 웹문서찌라시 전문 SEO 통합 솔루션 🚀 검색엔진 최적화(SEO), 디지털 시장의 게임체인저 디지털 시대의 경쟁력은 검색엔진 상위노출에 달려 있습니다. 구글찌라시 및 웹문서찌라시를 기반으로 한 정밀한 콘텐츠 배포 전략은 브랜드 인지도를 높이고, 타겟 유입을 극대화합니다. 🔍 데이터 기반 키워드 최적화 &amp; 정밀 타겟 분석 최신 빅데이터 분석과 머신러닝 기반 알고리즘을 적용하여, 업종별 핵심 키워드를 선별하고 클러스터링합니다. 구글 알고리즘의 변화에도 흔들리지 않는 유연하고 탄탄한 SEO 전략을 설계합니다. ⚙️ 자동화된 콘텐츠 배포 시스템 &amp; 실시간 성과 추적 구글찌라시프로그램 및 웹문서찌라시프로그램을 통해 대량 콘텐츠를 자동화 방식으로 배포하고, 실시간 순위 및 키워드 퍼포먼스를 정밀 추적합니다. 👉 피드백 기반 자동 최적화를 통해 검색 순위 상승을 지속적으로 유지합니다. ✅ 안정성과 윤리성을 겸비한 SEO 전략 단기 성과에 그치지 않는 장기적 브랜드 가치와 평판 관리를 지향합니다. 클린하고 윤리적인 마케팅으로 지속 가능한 디지털 경쟁력을 구축하세요. 🏆 산업별 맞춤형 SEO 전략 제공 토토, 카지노, 대출, 스포츠, 웹툰, 블로그 등 각 산업에 특화된 키워드 셋업과 콘텐츠 배포 전략으로 차별화된 브랜드 노출과 잠재 고객 확보를 지원합니다. 📌 주요 서비스 키워드 구글찌라시, 웹문서찌라시, 구글찌라시프로그램, 웹문서찌라시프로그램, 구글찌라시광고, SEO찌라시홍보, 구글찌라시상위노출, 1페이지 도배, 찌라시배포 프로그램, 산업별 키워드 셋팅, 도배대행 등 ✔ 대량 배포 ✔ 프로그램 사용 ✔ 상위노출 ✔ 1페이지 도배 ✔ 키워드 최적화 ✔ 업종별 전략 ✔ 광고 승인 회피 ✔ 실시간 트래킹 ✔ 장기적 SEO 구축 📞 전문 컨설팅 및 광고대행 문의 최신 SEO 트렌드, 구글 알고리즘, 산업별 대응 전략까지 모두 이해하는 경험 많은 전문가와 1:1 맞춤형 컨설팅을 받아보세요. 궁금한 사항은 언제든지 문의 주시면, 신속하고 친절하게 대응해 드립니다.</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>[personal_db]: 대출디비</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>499e762b7d9c</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="30" customHeight="1">
+      <c r="A37" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-23 19:11:29</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>https://designnlife.com/article/상품-qa/6/168066/page/1/</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>주식DB 💥광고문의 텔레:GGBOT114💥 TM디비 상품</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>찌라시홍보 | 텔레@GGBOT114 | 찌라시상단광고 저희트리광고는 고객이 원하는 정보를 원하는 시점에 검색 결과페이지에서 제공할 수 있습니다 진행하는 콘텐츠와 테크니컬한 모든 작업을 진행합니다 지난 10년간 국내외에서 수백건 이상의 SEO프로젝트를 수행한 경험을 바탕으로 프로젝트를 진행 블랙키워드 언더키워드를 상위노출하는데 최적화되어 있습니다 검색 결과 페이지는 무한 경쟁이 벌어지는 전쟁과 같은 곳 입니다 검색 결과 페이지는 소비자들에게 강력한 영향력을 발휘합니다 원하시는 키워드를 검색 결과 페이지 상단에 노출 시키는 것 원하시는 키워드를 페이지 최상단에 노출시키는것 구매 의사 결정을 위해서 정보를 탐색 중인 고객들의 다양한 관심과 의도를 대응하는 키워드를 개발하고 이들 키워드를 노출 경쟁력을 높이기 위해 태그와 웹페이지와 사이트 구조를 개선하여 양질의 오가닉 트래픽을 만들어 냅니다 원하시는 키워드가 검색 엔진 결과 페이지에서 더 높은 순위를 차지하도록 돕는 서비스를 제공합니다 언제나 최상단에 블랙키워드를 위치시킬수 있으며 자료를 수집하고 순위를 매기는 방식에 맞게 구글찌라시를 구성해서 구글 찌라시(비즈니스 핵심, 연관) 검색 시 검색결과 상단에 최적화시켜 1페이지에 노출 시켜 드립니다 검색엔진 키워드 검색 시 사용자는 첫페이지에서 91.5% 이탈하고 2번째 페이지 4.8%, 3번째 페이지 3.7% 이탈하기에 총 3페이지까지 유효한 페이지라고 말할 수 있고 타겟 페이지가 1페이지 안에 노출되는 것을 목표로 합니다. 구글찌라시에 블랙키워드 불법키워드에 최적화되어있으면 최상단에 항상 올려드립니다 구글찌라시홍보에 블랙키워드 불법키워드에 최적화되어있으면 최상단에 항상 올려드립니다 구글찌라시광고에 블랙키워드 불법키워드에 최적화되어있으면 최상단에 항상 올려드립니다 구글찌라시프로그램에 블랙키워드 불법키워드에 최적화되어있으면 최상단에 항상 올려드립니다 불법키워드홍보에 최적화되어있으면 최상단에 항상 올려드립니다 불법키워드광고에 최적화도이어있으며 최상단에 항상 올려드립니다</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>[personal_db]: 주식DB</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>f23a178d560b</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1">
+      <c r="A38" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-23 19:11:34</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>https://designnlife.com/article/상품-qa/6/168052/page/1/</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>디비 업체 | 검증된디비 업체 | 텔래 NEXONid 상품</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>디비 업체 | 검증된디비 업체 | 텔래 NEXONid 디비 업체 | 검증된디비 업체 | 텔래 NEXONid 최신 DB판매 정보 총정리 | 검증된 디비구매 방법 안내 안전하고 효율적인 디비판매, 디비구매, db판매, db구매를 찾고 계신가요? 국내 최상위 DB업체와 협력하여 다양한 카테고리별 디비를 신속하게 제공드립니다. 초보자도 안심하고 이용 가능한 검증된 시스템입니다. 1. 제공 카테고리: 직장인디비, 부업디비, 알바디비 맘카페디비, 여자디비, 남자디비, 여성디비, 남성디비 쇼핑몰디비, 쇼핑물디비, 공동구매디비, 공구디비 재테크디비, 코인디비, 로또디비, 보험디비 의사디비, 병원디비, 연령대디비 학원디비, 취업디비, 취직디비 유흥디비, 오피디비, 골프디비 2. 이런 분들께 추천드립니다: 타겟 마케팅용 디비가 필요하신 분 소자본으로 재테크와 부업을 시작하실 분 검증된 데이터로 효율을 극대화하고 싶은 분 100% 실시간 업데이트, 검수 완료, 불량율 0% 목표로 빠르고 정확한 데이터를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>[personal_db]: DB구매, DB판매</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>b34df8075b30</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="30" customHeight="1">
+      <c r="A39" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-23 19:12:29</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>https://designnlife.com/article/상품-qa/6/167763/page/1/</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>공구디비 구매 | 남자DB판매 | 텔래 nexonid 상품</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>공구디비 구매 | 남자DB판매 | 텔래 nexonid 최신 DB판매 정보 총정리 | 검증된 디비구매 방법 안내 안전하고 효율적인 디비판매, 디비구매, db판매, db구매를 찾고 계신가요? 국내 최상위 DB업체와 협력하여 다양한 카테고리별 디비를 신속하게 제공드립니다. 초보자도 안심하고 이용 가능한 검증된 시스템입니다. 1. 제공 카테고리: 직장인디비, 부업디비, 알바디비 맘카페디비, 여자디비, 남자디비, 여성디비, 남성디비 쇼핑몰디비, 쇼핑물디비, 공동구매디비, 공구디비 재테크디비, 코인디비, 로또디비, 보험디비 의사디비, 병원디비, 연령대디비 학원디비, 취업디비, 취직디비 유흥디비, 오피디비, 골프디비 2. 이런 분들께 추천드립니다: 타겟 마케팅용 디비가 필요하신 분 소자본으로 재테크와 부업을 시작하실 분 검증된 데이터로 효율을 극대화하고 싶은 분 100% 실시간 업데이트, 검수 완료, 불량율 0% 목표로 빠르고 정확한 데이터를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>[personal_db]: DB구매, DB판매</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>5f3d95a45d4c</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="30" customHeight="1">
+      <c r="A40" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-23 19:13:45</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>https://designnlife.com/article/상품-qa/6/167457/page/2/</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>통신사디비 파는곳 | 탤래그램 NEXONid | 한국투자가입인증 상품</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>통신사디비 파는곳 | 탤래그램 NEXONid | 한국투자가입인증 최신 DB판매 정보 총정리 | 검증된 디비구매 방법 안내 안전하고 효율적인 디비판매, 디비구매, db판매, db구매를 찾고 계신가요? 국내 최상위 DB업체와 협력하여 다양한 카테고리별 디비를 신속하게 제공드립니다. 초보자도 안심하고 이용 가능한 검증된 시스템입니다. 1. 제공 카테고리: 직장인디비, 부업디비, 알바디비 맘카페디비, 여자디비, 남자디비, 여성디비, 남성디비 쇼핑몰디비, 쇼핑물디비, 공동구매디비, 공구디비 재테크디비, 코인디비, 로또디비, 보험디비 의사디비, 병원디비, 연령대디비 학원디비, 취업디비, 취직디비 유흥디비, 오피디비, 골프디비 2. 이런 분들께 추천드립니다: 타겟 마케팅용 디비가 필요하신 분 소자본으로 재테크와 부업을 시작하실 분 검증된 데이터로 효율을 극대화하고 싶은 분 100% 실시간 업데이트, 검수 완료, 불량율 0% 목표로 빠르고 정확한 데이터를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>[personal_db]: DB구매, DB판매</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>2d30966bdd25</t>
         </is>
       </c>
     </row>
@@ -1716,6 +1891,11 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C33" r:id="rId32"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C34" r:id="rId33"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C35" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C36" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C38" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C39" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C40" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
